--- a/plan/databaseActions.xlsx
+++ b/plan/databaseActions.xlsx
@@ -56,6 +56,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>max tickets 4 per day, you can check by ticket</t>
     </r>
     <r>
@@ -112,7 +119,7 @@
     <t xml:space="preserve">Get | Delete | Update </t>
   </si>
   <si>
-    <t>Create new Customer Where User Register From Website</t>
+    <t>is a relationship with user</t>
   </si>
   <si>
     <t>Role</t>
@@ -135,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -199,6 +206,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -206,16 +236,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,67 +328,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -314,35 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="4"/>
@@ -371,13 +378,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,37 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,97 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,19 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +600,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -604,6 +620,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,30 +682,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -675,168 +697,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1230,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1360,7 +1367,6 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>

--- a/plan/databaseActions.xlsx
+++ b/plan/databaseActions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Database Actions</t>
   </si>
@@ -34,36 +34,8 @@
     <t>Get | Insert | Delete | Update | Login</t>
   </si>
   <si>
-    <t>Here ( insert is equal Register )</t>
-  </si>
-  <si>
-    <t>Support Tickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get | Insert | Delete | Update </t>
-  </si>
-  <si>
-    <t>max 4 tickets per day</t>
-  </si>
-  <si>
-    <t>Web Sales</t>
-  </si>
-  <si>
-    <t>This Table Used If Cusomer Buy Items from website</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>max tickets 4 per day, you can check by ticket</t>
+      <t xml:space="preserve">is a relationship with user &amp;&amp; </t>
     </r>
     <r>
       <rPr>
@@ -73,38 +45,23 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> IP </t>
+      <t xml:space="preserve">if user register from website add ( customer role to this user ) </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>if this</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> device </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>send 4 tickets in 24 hour</t>
-    </r>
+  </si>
+  <si>
+    <t>Support Tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get | Insert | Delete | Update </t>
+  </si>
+  <si>
+    <t>Web Sales</t>
+  </si>
+  <si>
+    <t>This Table Used If Cusomer Buy Items from website</t>
+  </si>
+  <si>
+    <t>Products</t>
   </si>
   <si>
     <t>Custom Sale</t>
@@ -116,16 +73,7 @@
     <t>Customer</t>
   </si>
   <si>
-    <t xml:space="preserve">Get | Delete | Update </t>
-  </si>
-  <si>
-    <t>is a relationship with user</t>
-  </si>
-  <si>
     <t>Role</t>
-  </si>
-  <si>
-    <t>This Roles Created By Seeders Automatic</t>
   </si>
   <si>
     <t>Expense</t>
@@ -142,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -206,9 +154,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,96 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,11 +230,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,7 +247,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,13 +326,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +416,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,151 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,41 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,16 +579,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,15 +622,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -697,153 +630,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,7 +1178,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1283,7 +1231,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" ht="57" customHeight="1" spans="1:6">
+    <row r="3" ht="57" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1299,62 +1247,51 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:6">
+    <row r="5" ht="57" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -1362,13 +1299,13 @@
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
